--- a/OpenCart/TaseCases.xlsx
+++ b/OpenCart/TaseCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12600" tabRatio="660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,20 @@
     <sheet name="Home Page" sheetId="3" r:id="rId3"/>
     <sheet name="Registration Page" sheetId="4" r:id="rId4"/>
     <sheet name="Login Page" sheetId="5" r:id="rId5"/>
+    <sheet name="Logout Page" sheetId="6" r:id="rId6"/>
+    <sheet name="Forgot Password" sheetId="7" r:id="rId7"/>
+    <sheet name="Search Functionality" sheetId="8" r:id="rId8"/>
+    <sheet name="Shopping Cart" sheetId="9" r:id="rId9"/>
+    <sheet name="My Account" sheetId="10" r:id="rId10"/>
+    <sheet name="My Account Information" sheetId="11" r:id="rId11"/>
+    <sheet name="Change Password" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="495">
   <si>
     <t xml:space="preserve">Project Name(Client Name) </t>
   </si>
@@ -41,6 +48,9 @@
     <t>Project Name</t>
   </si>
   <si>
+    <t>OpenCart (Frontend)</t>
+  </si>
+  <si>
     <t>Client</t>
   </si>
   <si>
@@ -71,7 +81,8 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Number of Test Cases</t>
+    <t>Number of 
+Test Cases</t>
   </si>
   <si>
     <t>TS_01 
@@ -196,8 +207,7 @@
 (Home Page)</t>
   </si>
   <si>
-    <t>Validate navigating to Home Page
-from 'Shopping Cart' Page</t>
+    <t>Validate navigating to Home Page from 'Shopping Cart' Page</t>
   </si>
   <si>
     <t>1.Open The Application/Website URL</t>
@@ -210,27 +220,29 @@
 5. Click on 'Continue Shopping' button in the displayed 'Shopping Cart' page (Validate ER-1)</t>
   </si>
   <si>
+    <t>Product Name: Mackbook</t>
+  </si>
+  <si>
+    <t>1. User should be taken to
+Home page.</t>
+  </si>
+  <si>
+    <t>TC_HP_02</t>
+  </si>
+  <si>
+    <t>Validate navigating to Home Page  from 'Order Success' page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and place 
+an order</t>
+  </si>
+  <si>
+    <t>1. Click on 'Continue' button in the 'Success' page
+(Validate ER-1)</t>
+  </si>
+  <si>
     <t>Product Name: 
 Mackbook</t>
-  </si>
-  <si>
-    <t>1. User should be taken to
-Home page.</t>
-  </si>
-  <si>
-    <t>TC_HP_02</t>
-  </si>
-  <si>
-    <t>Validate navigating to Home Page 
-from 'Order Success' page</t>
-  </si>
-  <si>
-    <t>1. Open the Application URL and place 
-an order</t>
-  </si>
-  <si>
-    <t>1. Click on 'Continue' button in the 'Success' page
-(Validate ER-1)</t>
   </si>
   <si>
     <t>TC_HP_03</t>
@@ -308,8 +320,7 @@
     <t>TC_HP_07</t>
   </si>
   <si>
-    <t>Validate Partner Carousel Section and its
-slider options in the Home page</t>
+    <t>Validate Partner Carousel Section and its slider options in the Home page</t>
   </si>
   <si>
     <t>1. Check the Partner Carousel Logo images and slider 
@@ -612,19 +623,1502 @@
   <si>
     <t>1. 'Privacy Policy' checkbox option should not be selected by default</t>
   </si>
+  <si>
+    <t>Test Case 
+ID</t>
+  </si>
+  <si>
+    <t>TC_LF_01</t>
+  </si>
+  <si>
+    <t>TS_03
+(Login 
+Functionality)</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using valid credentials</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL 
+(https://demo.opencart.com in any 
+supported browser
+2. Login credentials for an existing account are required</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option (Validate
+ER-1)
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data)&gt;
+4.Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5.  Click on 'Login' button (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Email Address - 
+bhuiyanaman71@gmail.com
+Password - 12345678</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to Login Page
+2. User should get logged in and taken to the 'Account' page</t>
+  </si>
+  <si>
+    <t>TC_LF_02</t>
+  </si>
+  <si>
+    <t>Validate logging into the 
+Application using invalid 
+credentials (i.e. Invalid email 
+address and Invalid Password)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL 
+(https://demo.opencart.com in any 
+supported browser
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data)&gt;
+4.Enter invalid password into the 'Password' field - &lt;Refer Test Data&gt;
+5.  Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Email Address - xyz71@gmail.com
+Password - 123abcde</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text 'Warning: No match 
+for E-mail Address and/or Password.' should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LF_03</t>
+  </si>
+  <si>
+    <t>Validate logging into the 
+Application using Invalid email address and valid Password</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data)&gt;
+4.Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5.  Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Email Address - 
+xyz71@gmail.com
+Password - 12345678</t>
+  </si>
+  <si>
+    <t>TC_LF_04</t>
+  </si>
+  <si>
+    <t>Validate logging into the 
+Application using valid email address and invalid Password</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data)&gt;
+4.Enter invalid password into the 'Password' field - &lt;Refer Test Data&gt;
+5.  Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Email Address - 
+bhuiyanaman71@gmail.com
+Password - 123abcde</t>
+  </si>
+  <si>
+    <t>TC_LF_05</t>
+  </si>
+  <si>
+    <t>Validate logging into the 
+Application without providing 
+any credentials</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Don't enter anything into the 'E-Mail Address' field
+4.Don't enter anything into the 'Password' field
+5.  Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_LF_06</t>
+  </si>
+  <si>
+    <t>Validate 'Forgotten Password' 
+link is availble in the Login page and is working</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option (ER-1)
+3. Click on 'Forgotten Password' link ( Validate ER-2)</t>
+  </si>
+  <si>
+    <t>1. User should be taken to 'Login' page and 'Forgotten Password' link should be displayed in the page.
+2. User should be taken 'Forgotten Password' page</t>
+  </si>
+  <si>
+    <t>TC_LF_07</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using keyboard keys(Tab and Enter)</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Press Tab keyboard key until the control comes to the Email Address text field and enter the valid Email Address - &lt;Refer Test Data&gt;
+4. Press Tab Keyboard key to move the control to Password Text field and enter the valid passowrd - &lt;Refer Test Data&gt; 
+5. Press Tab keyboard key until the control comes 'Login' button and press 'Enter' key to submit (ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be able to log into the Application</t>
+  </si>
+  <si>
+    <t>TC_LF_08</t>
+  </si>
+  <si>
+    <t>Validate logging into the 
+Application using inactive credentials</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Enter valid email address of an inacitve account into the 'E-Mail Address' field - &lt;Refer Test Data)&gt;
+4.Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5.  Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Test Data for this is pending</t>
+  </si>
+  <si>
+    <t>1. User should not be able to log into the Application</t>
+  </si>
+  <si>
+    <t>TC_LF_09</t>
+  </si>
+  <si>
+    <t>Validate the number of 
+unsuccessful login attemps</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data)&gt;
+4.Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5.  Click on 'Login' button 
+6. Repeat step 5 for 4 more times (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text 'Warning: Your 
+account has exeeded allowed number of login attemps. Please try again in 1 hour.' should be displayed for the 5th time of clicking the 'Login' button with the same invalid credentials</t>
+  </si>
+  <si>
+    <t>TC_LF_10</t>
+  </si>
+  <si>
+    <t>Validate the copying of the text entered into the Password field</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Enter any text into the 'Password' field
+4. Select the text entered into the 'Password' field, right click to select 'Copy' option (ER-1)
+5. Select the text entered into the 'Password' field and press (Ctrl+C) shortcut for copying (ER-2)</t>
+  </si>
+  <si>
+    <t>1. Copy option in the Right Click menu should be 
+disabled
+2. Password text should not be copied</t>
+  </si>
+  <si>
+    <t>Expected Result 
+(ER)</t>
+  </si>
+  <si>
+    <t>Pirority</t>
+  </si>
+  <si>
+    <t>TC_LO_01</t>
+  </si>
+  <si>
+    <t>Validate Logging out by selecting Logout option from 'My Account' dropmenu</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL
+2. User is Logged in</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'Logout' option (validate
+ER-1)
+3. Click on 'Continue' button (validate ER-2)</t>
+  </si>
+  <si>
+    <t>1. User should be taken to the 'Account Logout' page and user should see Login option inplace of Logout under the 'My Account' dropmenu
+2. User should be taken to the Home page</t>
+  </si>
+  <si>
+    <t>TC_LO_02</t>
+  </si>
+  <si>
+    <t>Validate Logging out by 
+selecting Logout option from 
+'Right Column' options</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL
+2. User is Logged in and is on 'Account' page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Logout' option from the Right Column (validate ER-1)
+2. Click on 'Continue' button (validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_LO_03</t>
+  </si>
+  <si>
+    <t>Validate the Application session 
+satus, after logging and closing 
+browser without logging out</t>
+  </si>
+  <si>
+    <t>1. Closed the Browser without Logging out
+2. Open the Browser and navigate the application (validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Application should not get logged 
+out, instead the user loggedin session
+need to be maintained</t>
+  </si>
+  <si>
+    <t>TC_LO_04</t>
+  </si>
+  <si>
+    <t>Validate logging out and browsing back</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'Logout' option
+3. Click on Browser back button (validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should not get logged in</t>
+  </si>
+  <si>
+    <t>TC_LO_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate 'Logout' option is not
+displayed under 'My Account' menu before logging in
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+(Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Logout option should not be 
+displayed under 'My Account' dropmenu</t>
+  </si>
+  <si>
+    <t>TC_LO_06</t>
+  </si>
+  <si>
+    <t>Validate Logout option is not
+displayed under 'Right Column'
+options before logging in</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'Register' option(Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Logout option should not be 
+displayed under 'Right Column'</t>
+  </si>
+  <si>
+    <t>TC_LO_07</t>
+  </si>
+  <si>
+    <t>Validate logout from an Account 
+from a single place after logging into it from different places</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL
+2. User is logged in Firefox Browser of your laptop
+3. User is logged in with the same account of step2 in Chrome Browser of your Mobile device</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu in Firefox Browser
+2. Select 'Logout' option
+3. Perform any operation which requires the user to log, say navigating to Address Book page in Chrome Browser of Mobile Device (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be logged out in 
+Mobile Device too, instead of getting 
+navigated to the Address book page</t>
+  </si>
+  <si>
+    <t>TC_LO_08</t>
+  </si>
+  <si>
+    <t>Validate logging out and log in immediately after logout</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'Logout' option
+3. Login immediately again with same or different account (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Same Account or Different Account 
+should get loggedin</t>
+  </si>
+  <si>
+    <t>TC_LO_09</t>
+  </si>
+  <si>
+    <t>Validate 'Account Logout' page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu 
+2. Select 'Logout' option
+3. Check the page Heading, Page Title, Page URL and Breadcrumb of the displayed 'Account Logout' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper Page Heading, Page Title, 
+Page URL and Breadcrumb are displayed for 'Account Logout' page</t>
+  </si>
+  <si>
+    <t>TC_LO_10</t>
+  </si>
+  <si>
+    <t>Validate the UI of the Logout 
+option and the 'Account Logout'
+page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu 
+2. Select 'Logout' option(Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI 
+checklist should be displayed for Logout option (My Account Dropmenu and Right Column) and 'Account Logout' page</t>
+  </si>
+  <si>
+    <t>Tase Case
+ID</t>
+  </si>
+  <si>
+    <t>TC_FP_01</t>
+  </si>
+  <si>
+    <t>(TS_05)
+Forgot Password</t>
+  </si>
+  <si>
+    <t>Validate user is able to reset the password</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and 
+navigate to Login Page
+2. An existing Account is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click on 'Forgotten Password' link from 
+Login page (Validate ER-1)
+2. Enter the email address of an existing account for which you have forgot the password
+3. Click on 'Continue' button (Validate 
+ER-2)
+4. Check the registered email address for which the password got reset (Validate ER-3)
+5. Click on the link for resseting the password from the received email body (Validate ER-4)
+6. Enter new password into the 'Password' and 'Confirm' fields
+7. Click on 'Continue' button (Validate ER-5)
+8. Enter the email address into the E-Mail address field and the new resetted password into the 'Password' field
+9. Click on 'Login' button (Validate ER-6) 
+</t>
+  </si>
+  <si>
+    <t>1. User should be taken to 'Forgotten Password' page
+2. Success message with text - 'An email with a confirmation link has been sent your email address.' should be displayed in green color
+3. Validate that an email is received regarding resetting of the password to the registered email address
+4. User should be taken 'Reset your Password' page
+5. Success message with text -'Success: Your password has been successfully update.' should be displayed in green color and User should be navigated to 'Login' Page
+6. User should be able to login with the new password</t>
+  </si>
+  <si>
+    <t>TC_FP_02</t>
+  </si>
+  <si>
+    <t>Validate an email is sent with the proper details on resetting the password</t>
+  </si>
+  <si>
+    <t>1. click on 'Forgotten Password' link from 
+Login page
+2. Enter the email address of an existing account for which you have forgot the password
+3. Click on 'Continue' button
+4. Check the registered email address for which the password got reset (Validate ER-1 and ER-2)</t>
+  </si>
+  <si>
+    <t>1. An email should be received by
+ the registered email address with the details of resetting the password</t>
+  </si>
+  <si>
+    <t>TC_FP_03</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application with the old password after resetting it</t>
+  </si>
+  <si>
+    <t>1. An existing Account is required and we have reset the password
+2. Open the Application URL and navigate to Login Page</t>
+  </si>
+  <si>
+    <t>1. Enter registered email address into the E-Mail address' field
+2. Enter new password into the 'Password' field
+3. Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should not be able to login 
+with old password</t>
+  </si>
+  <si>
+    <t>TC_FP_04</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application 
+with the old password when you have initiated the resetting password process and have not reset the password</t>
+  </si>
+  <si>
+    <t>1. click on 'Forgotten Password' link from 
+Login page
+2. Enter the email address of an existing account for which you have forgot the password
+3. Click on 'Continue' button 
+4. Enter registered email address into the E-Mail Address' field
+5. Enter the old password into the 'Password' field
+6. Click on 'Login' button</t>
+  </si>
+  <si>
+    <t>1. User should be able to login 
+with old password</t>
+  </si>
+  <si>
+    <t>TC_FP_05</t>
+  </si>
+  <si>
+    <t>Validate resetting the password for a 
+non-registered account</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and 
+navigate to Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click on 'Forgotten Password' link from 
+Login page
+2. Enter the email address for which the Account doesn't exist in the application 
+3. Click on 'Continue' button (Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t>1. 'Warning: This email address  
+doesn't exist. Pleasure register first!', this message should be displayed</t>
+  </si>
+  <si>
+    <t>TC_FP_06</t>
+  </si>
+  <si>
+    <t>Validate how many times the User is 
+able to reset the password using the reset link sent over email</t>
+  </si>
+  <si>
+    <t>1. click on 'Forgotten Password' link from 
+Login page
+2. Enter the email address of an existing account for which you have forgot the password
+3. Click on 'Continue' button
+4. Check the registered email address for which the password got reset
+5. Click on the link for resseting the password from the received email body 
+6. Enter new password into the 'Password' and 'Confirm' fields
+7. Click on 'Continue' button
+8. Repeat steps 5 to 7 for 2 to 3 times (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be allowed to use the 
+link sent in the email for resetting the password only once</t>
+  </si>
+  <si>
+    <t>TC_FP_07</t>
+  </si>
+  <si>
+    <t>Validate the User has given the same 
+password into the 'Password' and 'Confirm' field of the 'Reset your password' page</t>
+  </si>
+  <si>
+    <t>1. click on 'Forgotten Password' link from 
+Login page
+2. Enter the email address of an existing account for which you have forgot the password
+3. Click on 'Continue' button
+4. Check the registered email address for which the password got reset
+5. Click on the link for resseting the password from the received email body 
+6. Enter new password into the 'Password' field
+7. Enter a different password into the 'Confirm' fields 
+8. Click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. A field level warning message with
+ text - 'Password and Password confirmation don't match!' should be displayed under 'Confirm' field</t>
+  </si>
+  <si>
+    <t>TC_FP_08</t>
+  </si>
+  <si>
+    <t>(TS_04)
+Forgot Password</t>
+  </si>
+  <si>
+    <t>Validate the placeholders are 
+displayed in the 'Password' and 'Confirm' fields of 'Reset your password' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. An existing Account is required and we have reset the password for this account and reset password email is sent to the registered email address
+</t>
+  </si>
+  <si>
+    <t>1. Click on the reset password link 
+available in the email
+2. Check whether the 'Password' and 'Confirm' fields in the 'Reset your password' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper placeholder texts are 
+displayed inside the 'Password' and 'Confirm' fields of the 'Reset your Password' page</t>
+  </si>
+  <si>
+    <t>TC_FP_09</t>
+  </si>
+  <si>
+    <t>Validate resetting the password 
+without giving the new password in the 'Password' and 'Confirm' fields of 'Reset your Password' page</t>
+  </si>
+  <si>
+    <t>1. Click on the reset password link 
+available in the email
+2. Don't enter any password into the 'Password' and 'Confirm' fields of the 'Reset your Password' page
+3. Click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Field level warning message with 
+text - 'Password must be between 8 to 20 characters!' should be displayed for 'Password' field</t>
+  </si>
+  <si>
+    <t>TC_FP_10</t>
+  </si>
+  <si>
+    <t>Validate clicking 'Back' button on the 
+'Reset your password' page</t>
+  </si>
+  <si>
+    <t>1. Click on the reset password link 
+available in the email
+2. Click on 'Back' button on the 'Reset your Password' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to 
+'Login' page</t>
+  </si>
+  <si>
+    <t>TC_SF_01</t>
+  </si>
+  <si>
+    <t>(TS_06)
+Search 
+Functionality</t>
+  </si>
+  <si>
+    <t>Validate searching with an existing 
+Product Name</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL in any
+supported browser</t>
+  </si>
+  <si>
+    <t>1. Enter any existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Product Name: iMac</t>
+  </si>
+  <si>
+    <t>1. Search product should be displayed in the 
+search results</t>
+  </si>
+  <si>
+    <t>TC_SF_02</t>
+  </si>
+  <si>
+    <t>Validate Searching with a non existing Product name</t>
+  </si>
+  <si>
+    <t>1. Enter non existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Product Name: Aman</t>
+  </si>
+  <si>
+    <t>1. 'There is no product that matched the 
+search criteria' should be displayed in the Search Result page</t>
+  </si>
+  <si>
+    <t>TC_SF_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Searching without provinding any Product Name
+</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field
+2. Click on the button having search icon (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_SF_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Searching for a Product after login to the Application
+</t>
+  </si>
+  <si>
+    <t>TC_SF_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate all the fields in the Search functionality and search page have placeholder
+</t>
+  </si>
+  <si>
+    <t>1. Proper placeholder text is displayed in the below fields:
+- Search text box field
+- Search Criteria text box field</t>
+  </si>
+  <si>
+    <t>TC_SF_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate searching by providing a search criteria which results in multiple products
+</t>
+  </si>
+  <si>
+    <t>1. Enter teh search criteria in the 'Search' text box field which can result mutiple products - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Product Name: Mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. More than one products should be displayed in the search results page
+</t>
+  </si>
+  <si>
+    <t>TC_SF_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate searching using 'Search Criteria' field
+</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field
+2. Click on the button having search icon 
+3. Enter any existing product name into the 'Search Criteria' text field - &lt;Refer Test Data&gt; 
+4. Click on 'Search' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Searched product should be displayed in the search results
+</t>
+  </si>
+  <si>
+    <t>TC_SF_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Search using the text from the product description
+</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field
+2. Click on the button having search icon 
+3. Enter any existing product name into the 'Search Criteria' text field - &lt;Refer Test Data&gt; 
+4. Select 'Search in product description' checkbox option
+5. Click on 'Search' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Text in Production description of iMac 
+Product: iLife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Product having the given text in its description should be displayed in the search result
+</t>
+  </si>
+  <si>
+    <t>TC_SF_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Search by selecting teh category of product
+</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field
+2. Click on the button having search icon 
+3. Enter any product name into the 'Search Criteria' text field - &lt;Refer Test Data&gt; 
+4. Select the category of the given Porduct Name into 'Category' dropdown field -&lt;Refer Test Data&gt;
+5. Click on 'Search' button (Validate ER-1)
+6. Select a wrong category in the 'Category' dropdown field &lt;Refer Test Data&gt; 
+7. Click on 'Search' button (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Product Name: iMac
+Correct Category Name: Mac
+Wrong Category 
+Name: PC</t>
+  </si>
+  <si>
+    <t>1. Product should be successfully displayed in the search results
+2. 'There is no product that matches the search criteria' should be displayed in the Search Results page</t>
+  </si>
+  <si>
+    <t>TC_SF_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to Search page from the Site Map page
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'Site Map' link in the footer options
+2. Click on the 'Search' link from the 'Site Map' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to 'Search' page</t>
+  </si>
+  <si>
+    <t>TC_SF_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate we can use all the option of Search functionality using the Keybaord keys
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press Tab and Enter keys to perform Search operation and select several options in the Search page (Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be able to perform Search operation and select several options in the Search page using the Keyboard keys Tab and Enter
+</t>
+  </si>
+  <si>
+    <t>TC_SC_01</t>
+  </si>
+  <si>
+    <t>(TS_07)
+Shopping Cart</t>
+  </si>
+  <si>
+    <t>Validate navigating to 
+'Shopping Cart' page from the Success message</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL in 
+any supported browser</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page
+5. Click on the 'Shopping Cart!' link in the displayed success message (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: iMac
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be taken to the Shopping Cart page
+</t>
+  </si>
+  <si>
+    <t>TC_SC_02</t>
+  </si>
+  <si>
+    <t>Validate navigating to 
+'Shopping Cart' page from the 'Shooping Cart' header option</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page
+5. Click on the 'Shopping Cart' header option (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_SC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'Shopping Cart' page from the 'Site Map' footer page
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page
+5. Click on the 'Site Map' footer option
+6. Click on 'Shopping Cart' link in the displayed 'Site Map' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_SC_04</t>
+  </si>
+  <si>
+    <t>Validate the Cart button when 
+there are no products added to the Shopping Cart</t>
+  </si>
+  <si>
+    <t>1. Click on Cart button which is displayed in black color on the top of the page beside the search icon button (Validate ER-1)
+2. Click on 'Continue' button (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>No Applicable</t>
+  </si>
+  <si>
+    <t>1. 'Your shopping cart is empty!', message should be displayed
+2. User should be taken to 'Home' page</t>
+  </si>
+  <si>
+    <t>TC_SC_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'Shopping Cart' page using 'View Cart' option in the Cart block
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on Cart button which is displayed in black color on the top of the page beside the search icon button
+5. Click on 'View Cart' option in the displayed Cart block (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_SC_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the weight of the Product in the 'Shopping Cart' page
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page
+5. Click on the 'Shopping Cart!' link in the displayed success message
+6. Check the weight of the Product in the displayed 'Shopping Cart' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Correct weight of the products should be displayed in the Shopping Cart page
+</t>
+  </si>
+  <si>
+    <t>TC_SC_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Image, Name, Model, Quantity, Unit Price and Total of the Product in the 'Shopping Cart' page
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page
+5. Click on the 'Shopping Cart!' link in the displayed success message
+6. Check the Image, Name, Model, Quantity, Unit Price and Total of the Product in the displayed 'Shopping Cart' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Correct Image, Name, Model, Quantity,Unit Price and Total of the Product should be displayed
+</t>
+  </si>
+  <si>
+    <t>TC_SC_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate updating the Quantity of the Product in the 'Shopping Cart' supported browser page
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page
+5. Click on the 'Shopping Cart!' link in the displayed success message
+6. Enter a new quantity into the 'Quantity' field of the Product in the displayed Shopping Cart page
+7. Click on 'Update' icon option (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Success message with text - 'Success: You have modified your shopping cart', should be displayed
+</t>
+  </si>
+  <si>
+    <t>TC_SC_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate updating the quantity of the Product in the 'Shopping Cart' page to a negative or zero or a non-numerical value
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page
+5. Click on the 'Shopping Cart!' link in the displayed success message
+6. Enter a negative value or zero or non-numerical value into the 'Quantity' field of the Product in the displayed Shopping Cart page
+7. Click on 'Update' icon option (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Proper warning message should be displayed informing the User to provide a positive numerical value
+</t>
+  </si>
+  <si>
+    <t>TC_SC_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate removing the item from 'Shopping Cart' page
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page
+5. Click on the 'Shopping Cart!' link in the displayed success message
+6. Click on 'Remove' icon option (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Product should be removed from the 'Shopping Cart' page
+</t>
+  </si>
+  <si>
+    <t>TC_MA_01</t>
+  </si>
+  <si>
+    <t>(TS_08)
+My Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'My Account' page from the 'Order Success' page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL, login and place an order for a product - &lt;Refer Test Data&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' page link in the displayed 'Order Success' page (Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User Should be taken to 'My Account' page
+</t>
+  </si>
+  <si>
+    <t>TC_MA_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'My Account' page on login
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Enter valid email address into the 'Email Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt; 
+5. Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Email Address: bhuiyanaman71@gmail.com
+Password: abcd123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be able to login and taken to 'My Account' page
+</t>
+  </si>
+  <si>
+    <t>TC_MA_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'My Account' page using 'My Account' option
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL and login
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'My Account' option (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_MA_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'My Account' page using 'Right Column' options
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' option from any page say 'Order Histor' page (Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t>TC_MA_05</t>
+  </si>
+  <si>
+    <t>Validate navigating to 'My 
+Account' page using 'My Account' option in 'Site Map' page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Site Map' link in the footer options
+2. Click on 'My Account' link in the displayed 'Site Map' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_MA_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Breadcrumb in 'My Account' page
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'My Account' option
+3. Validate the Breadcrumb in the displayed 'My Account' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Breadcrumb should be displayed in the 'My Account' page and is working properly
+</t>
+  </si>
+  <si>
+    <t>TC_MA_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Page URL, Page Heading and Page Title of the 'My Account' page
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Click on 'Login' option
+3. Check the Page URL, Page Heading and Page Title that is displayed in the 'My Account' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Correct Page URL, Page Heading, Page Title should be displayed
+</t>
+  </si>
+  <si>
+    <t>TC_MA_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the UI of 'My Account' page functionality
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL in any supported browser
+</t>
+  </si>
+  <si>
+    <t>1. Check the UI of the functionality related 
+to 'My Account' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Proper UI adhering to the UI checklist should be displayed for the 'My Account' page functionality
+</t>
+  </si>
+  <si>
+    <t>TC_MA_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the 'My Account' page functionality in all the supported enviroments
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Check the 'My Account' page functionality in all the supported enviroments (Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 'My Account' page functionality should work correctly in all the supported enviroments
+</t>
+  </si>
+  <si>
+    <t>TC_MAI_01</t>
+  </si>
+  <si>
+    <t>(TS_09)
+My Account Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'My Account Information' page from 'My Account' page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Edit your account information' link on the displayed 'My Account' page (Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be navigated to 'My Account Information' page
+</t>
+  </si>
+  <si>
+    <t>TC_MAI_02</t>
+  </si>
+  <si>
+    <t>Validate navigating to 'My Account Information' page using 'Edit Account' Right Column option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Edit Account' column option (Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t>TC_MAI_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'My Account Information' page from 'Site Map' page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on the 'Site Map' footer option
+2. Click on 'Account Information ' link in the displayed 'Site Map' page (Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t>TC_MAI_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate updating the Account Details in the 'My Account Information' page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Edit your account information' link on the displayed 'My Account' page 
+4. Update all the details in the fields - First Name, Last Name, E-mail and Telephone 
+5. Click on 'Continue' button (Validate ER-1, ER-2)
+6. Logout and Login with new updated Email Address (Validate ER-3)
+7. Logout and Login with old Email Address (Validate ER-4)
+</t>
+  </si>
+  <si>
+    <t>1. All the Account details should be update 
+2. Success message with text - 'Success: Your account has been successfully update.', should be displayed
+3. User should be able to login with new Email address and the old password
+4. User should not be able to login with old Email address</t>
+  </si>
+  <si>
+    <t>TC_MAI_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate making all the fields in the 'My Account Information' page empty and update
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Edit your account information' link on the displayed 'My Account' page 
+4. Clear all the fields - First Name, Last Name, E-mail and Telephone in the displayed 'My Account Information' page
+5. Click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Field level validation message 
+information the User to enter the required details should be displayed for all the fields</t>
+  </si>
+  <si>
+    <t>TC_MAI_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate all the field in the 'My Account Information' page have placeholders
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Edit your account information' link on the displayed 'My Account' page 
+4. Clear all the fields - First Name, Last Name, E-mail and Telephone in the displayed 'My Account Information' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper placeholder texts should be
+displayed in the all the fields - First Name, Last Name, E-Mail and Telephone of 'My Account Information' page</t>
+  </si>
+  <si>
+    <t>TC_MAI_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate all the field in the 'My Account Information' page are marked as mandatory
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Edit your account information' link on the displayed 'My Account' page 
+4. Check all the fields - First Name, Last Name, E-mail and Telephone in the displayed 'My Account Information' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All the fields in the 'My Account Information' page - First Name, Last Name, E-mail and Telephone are marked as mandatory (* symbol in red color should be displayed as a symbol of mandatory)
+</t>
+  </si>
+  <si>
+    <t>TC_MAI_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate providing invalid Email format into the 'E-Mail' Address field
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Edit your account information' link on the displayed 'My Account' page 
+4. Update the 'E-Mail' field in the 'My Account Information' page with invalid email format - &lt;Refer Test Data&gt;</t>
+  </si>
+  <si>
+    <t>Try all below invalid email address formats:
+1. bhuiyanaman71
+2. bhuiyan@
+3. bhuiyan@gmail
+4. bhuiyan@gmail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Proper Field level validation message informing the User to provide the valid Email format should be displayed
+</t>
+  </si>
+  <si>
+    <t>TC_MAI_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate 'Back' button in the 'My Account Information' page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Edit your account information' link on the displayed 'My Account' page 
+4. Update the fields in the 'My Account Information' page 
+5. Click on 'Back' button (Validate ER-1)
+6. Click on 'Edit your account information' link (Validate ER-2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be navigated to 'My Account Information' page
+2. User should be taken to 'My Account Information' page and the updated details should be lost
+</t>
+  </si>
+  <si>
+    <t>TC_MAI_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Breadcrumb in the 'My Account Information' page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Edit your account information' link on the displayed 'My Account' page 
+4. Check the Breadcrumb in the displayed 'My Account Information'(Validate ER-1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Breadcrumb should be displayed in the 'My Account Information' page and is working properly
+</t>
+  </si>
+  <si>
+    <t>TC_CP_01</t>
+  </si>
+  <si>
+    <t>(TS_10)
+Change Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'Change Password' page from 'My Account' page
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropmenu
+2. Select 'My Account' option
+3. Click on 'Change your password' link on the displayed 'My Account' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to 'Change Password' page</t>
+  </si>
+  <si>
+    <t>TC_CP_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'Change Password' page using 'Password' Right column option
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'Password' right column option (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be navigated to 'Change Password' page
+</t>
+  </si>
+  <si>
+    <t>TC_CP_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to 'Change Password' page from 'Site Map' page
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'Site Map' footer option
+2. Click on 'Password' link in the displayed 'Site Map' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be navigated to 'Change Password' page
+ </t>
+  </si>
+  <si>
+    <t>TC_CP_04</t>
+  </si>
+  <si>
+    <t>Validate changing the password</t>
+  </si>
+  <si>
+    <t>1. Click on ' Password' right column option
+2. Enter old password into the 'Old Password' field
+3. Enter new password into the 'Password' and 'Password Confirm' fields
+4. Click on 'Continue' button (Validate ER-1)
+5. Logout and Login with old password (Validate ER-2)
+6. Logout and Login with new password (Validate ER-3)</t>
+  </si>
+  <si>
+    <t>1. Success message with text - 'Success: Your password has been successfully updated.', should be displayed
+2. Warning message with text - 'Warning: No match for E-Mail Address and/or Password.', should be displayed
+3. User should login successfully and taken to 'My Account' page</t>
+  </si>
+  <si>
+    <t>TC_CP_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate changing the password without entering anything into the field in 'Change Password' page
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'Password' right column option
+2. Don't enter anything into Password fields
+3. Click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Field level warning message should be 
+displayed under the password fields by not allowing the user to update the account with a blank password</t>
+  </si>
+  <si>
+    <t>TC_CP_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate entering different password into the 'Password' and 'Confirm Password' fields while changing the password
+</t>
+  </si>
+  <si>
+    <t>1. Click on ' Password' right column option
+2. Enter old password into the 'Old Password' field
+3. Enter a different password other than the one entered in the above step
+4. Click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Field level warning message should be 
+displayed under the password Confirm field with the text - 'Password confirmation doesn't match password!'</t>
+  </si>
+  <si>
+    <t>TC_CP_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate all the Password fields in the 'Change Password' page are marked as mandatory
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'Password' right column option
+2. Check whether the password fields in the displayed 'Change Password' page are marked as mandatory (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All the fields in the 'Change Password' page should be marked as mandatory using the Red Color * symbol
+</t>
+  </si>
+  <si>
+    <t>TC_CP_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the text entered into the fields in 'Change Password' field is toggled to hide its display
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'Password' right column option
+2. Enter the Password text into the Password fields in the displayed 'Change Password' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Text entered into the Password fields - 
+Password and Password Confirm should be toggled to hide its display (Instead of entered text, we should see * symbols)</t>
+  </si>
+  <si>
+    <t>TC_CP_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate 'Back' button in the 'Change Password' page
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'Password' right column option
+2. Enter the new Password into Password and Password confirm fields
+3. Click on 'Back' button (Validate ER-1)
+4. Click on 'Change Password' link in the displayed 'My Account' page (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>1. User should be taken to 'My Account' page
+2. Newly entered password text in the Password and Password Confirm fields should be lost</t>
+  </si>
+  <si>
+    <t>TC_CP_10</t>
+  </si>
+  <si>
+    <t>Validate Breadcrumb in the 
+'Change Password' page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Password' right column option
+2. Check the Breadcrumb in the displayed 'Change Password' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Breadcrumb should be displayed in the 'Change Password' page and is working properly
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -665,21 +2159,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -690,6 +2169,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -709,7 +2196,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -717,7 +2212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,6 +2221,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,33 +2262,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,18 +2285,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -808,25 +2302,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +2332,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,19 +2374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +2398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +2422,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,31 +2482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,77 +2500,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1035,11 +2574,110 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,17 +2697,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,19 +2732,34 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1123,96 +2779,87 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,123 +2868,219 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1675,44 +3418,1019 @@
   </cols>
   <sheetData>
     <row r="2" ht="23.25" spans="2:3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="23.25" spans="2:3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="23.25" spans="2:3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="23.25" spans="2:3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6" ht="23.25" spans="2:3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" ht="23.25" spans="2:3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="21.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="26.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="33.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="35.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="30" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" ht="105" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="60" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="60" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="60" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="60" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="75" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="60" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="60.75" spans="1:11">
+      <c r="A11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="35.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="22.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="28.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="30" spans="1:11">
+      <c r="A2" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="90" spans="1:11">
+      <c r="A3" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" ht="45" spans="1:11">
+      <c r="A4" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="60" spans="1:11">
+      <c r="A5" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="195" spans="1:11">
+      <c r="A6" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="120" spans="1:11">
+      <c r="A7" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="105" spans="1:11">
+      <c r="A8" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="105" spans="1:11">
+      <c r="A9" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="105" spans="1:11">
+      <c r="A10" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="135" spans="1:11">
+      <c r="A11" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="105.75" spans="1:11">
+      <c r="A12" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="29.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="44.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="13.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="13.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="13.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="30" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" ht="60" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="45" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="120" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="60" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="75" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="60" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="60" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="90" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="60.75" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1726,7 +4444,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C11" sqref="C11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1738,224 +4456,246 @@
     <col min="5" max="5" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
+    <row r="1" ht="15.75" spans="1:2">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11"/>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="37">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:2">
+      <c r="A7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="39"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+    </row>
+    <row r="9" ht="30" spans="1:5">
+      <c r="A9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="1:5">
+      <c r="A10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="48">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="11" ht="30" spans="1:5">
+      <c r="A11" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:5">
+      <c r="A12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:5">
+      <c r="A13" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:5">
+      <c r="A14" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:5">
+      <c r="A15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="15">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="30" spans="1:5">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15" t="s">
+    </row>
+    <row r="16" ht="30" spans="1:5">
+      <c r="A16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" ht="30" spans="1:5">
-      <c r="A11" s="16" t="s">
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:5">
+      <c r="A17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="30" spans="1:5">
-      <c r="A12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="30" spans="1:5">
-      <c r="A13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="30" spans="1:5">
-      <c r="A14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="30" spans="1:5">
-      <c r="A15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="30" spans="1:5">
-      <c r="A17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="15">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" ht="30" spans="1:5">
-      <c r="A18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="30" spans="1:5">
-      <c r="A19" s="16" t="s">
+      <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E18" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="30.75" spans="1:5">
+      <c r="A19" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="B19" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="16">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1966,19 +4706,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="34.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.6962962962963" customWidth="1"/>
+    <col min="3" max="3" width="36.2444444444444" customWidth="1"/>
     <col min="4" max="4" width="30.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="42.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="44.8592592592593" customWidth="1"/>
     <col min="6" max="6" width="19.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="40.1407407407407" customWidth="1"/>
     <col min="8" max="8" width="14.4444444444444" customWidth="1"/>
@@ -1987,310 +4727,311 @@
     <col min="11" max="11" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="52" customHeight="1" spans="1:11">
+      <c r="A2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>52</v>
       </c>
+      <c r="K2" s="31" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" ht="135" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" ht="30" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" ht="30" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" ht="60" spans="1:11">
-      <c r="A6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" ht="165" spans="1:11">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="150" spans="1:11">
+      <c r="A7" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" ht="75" spans="1:11">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="A8" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" ht="165" spans="1:11">
-      <c r="A9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="A9" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="45" spans="1:11">
-      <c r="A10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="30" spans="1:11">
-      <c r="A11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="A11" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" ht="30" spans="1:11">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="30.75" spans="1:11">
+      <c r="A12" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2301,10 +5042,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -2318,310 +5059,311 @@
     <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15.75"/>
     <row r="2" ht="45" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>52</v>
+      <c r="F2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="150" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="E3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" ht="165" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" ht="150" spans="1:11">
-      <c r="A5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="D5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" ht="345" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" ht="180" spans="1:11">
-      <c r="A7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="A7" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="D7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" ht="180" spans="1:11">
-      <c r="A8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="A8" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" ht="135" spans="1:11">
-      <c r="A9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="165" spans="1:11">
-      <c r="A10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="A10" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="B10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="105" spans="1:11">
-      <c r="A11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="A11" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" ht="60" spans="1:11">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="60.75" spans="1:11">
+      <c r="A12" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="D12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2632,14 +5374,1693 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="27.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="27.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="23.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="41.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="13.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="45" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="165" spans="1:11">
+      <c r="A3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" ht="150" spans="1:11">
+      <c r="A4" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="150" spans="1:11">
+      <c r="A5" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="150" spans="1:11">
+      <c r="A6" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="120" spans="1:11">
+      <c r="A7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="60" spans="1:11">
+      <c r="A8" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="195" spans="1:11">
+      <c r="A9" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="150" spans="1:11">
+      <c r="A10" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="165" spans="1:11">
+      <c r="A11" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="150.75" spans="1:11">
+      <c r="A12" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="10.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="45" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="105" spans="1:11">
+      <c r="A3" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" ht="105" spans="1:11">
+      <c r="A4" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="60" spans="1:11">
+      <c r="A5" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="60" spans="1:11">
+      <c r="A6" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="60" spans="1:11">
+      <c r="A7" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="45" spans="1:11">
+      <c r="A8" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="120" spans="1:11">
+      <c r="A9" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="75" spans="1:11">
+      <c r="A10" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="90" spans="1:11">
+      <c r="A11" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="75.75" spans="1:11">
+      <c r="A12" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="25.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="13.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="28.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="13.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="9.11111111111111" customWidth="1"/>
+    <col min="11" max="11" width="10.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="45" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="330" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" ht="135" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="75" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="165" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="105" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="225" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="240" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="90" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="105" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="90.75" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="28.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="28.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="26.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="35.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="13.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="45" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="75" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" ht="75" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="60" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="75" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="60" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="90" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="135" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="165" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="255" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="60" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" ht="75.75" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="24.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="26.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="15.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="31.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="30" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="135" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" ht="135" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" ht="150" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="60" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="150" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="165" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="180" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="195" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="195" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="165.75" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
